--- a/data/example/Power_FACTS.xlsx
+++ b/data/example/Power_FACTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Auer\Local\Code\LEGO_internal\examples\001_Base_Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A913032-BA43-4618-8838-1EDCB286696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402B924-2942-48A0-BAA0-6206DE107039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-17544" windowWidth="30936" windowHeight="16776" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39510" yWindow="4950" windowWidth="28800" windowHeight="15240" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power FACTS" sheetId="109" r:id="rId1"/>
@@ -552,12 +552,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -881,11 +881,13 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.796875" style="2" bestFit="1" customWidth="1"/>
@@ -899,12 +901,12 @@
     <col min="16" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -942,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -959,7 +961,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" s="20"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -976,7 +978,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1015,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>-200</v>
       </c>
       <c r="H7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <v>10</v>
@@ -1060,7 +1062,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>-200</v>
       </c>
       <c r="H8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <v>10</v>
@@ -1105,7 +1107,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>-200</v>
       </c>
       <c r="H9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <v>10</v>
@@ -1148,7 +1150,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>-200</v>
       </c>
       <c r="H10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <v>10</v>
@@ -1191,7 +1193,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>-200</v>
       </c>
       <c r="H11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <v>10</v>
@@ -1234,7 +1236,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>-200</v>
       </c>
       <c r="H12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <v>10</v>
@@ -1277,7 +1279,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>-200</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12">
         <v>10</v>
@@ -1320,7 +1322,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>-200</v>
       </c>
       <c r="H14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <v>10</v>
@@ -1363,7 +1365,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>-200</v>
       </c>
       <c r="H15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <v>10</v>
@@ -1406,7 +1408,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1420,7 +1422,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1434,7 +1436,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1449,7 +1451,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1482,12 +1484,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1633,6 +1629,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -1642,22 +1644,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1673,4 +1659,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>